--- a/doc/Nummer tabel 3.xlsx
+++ b/doc/Nummer tabel 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -915,7 +915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1034,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1072,8 +1072,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="1">
-        <f>4+6</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1094,8 +1093,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="1">
-        <f>4+6</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1115,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1135,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1155,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>85</v>
@@ -1181,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>86</v>
@@ -1207,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>87</v>
@@ -1233,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1257,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1274,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1297,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1317,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1343,7 +1341,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1364,8 +1362,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="1">
-        <f>19*2</f>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1385,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1405,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1425,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1445,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1465,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1486,8 +1483,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="1">
-        <f>26*2</f>
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1508,8 +1504,7 @@
         <v>36</v>
       </c>
       <c r="F28" s="1">
-        <f>18*2</f>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1529,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1549,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1570,8 +1565,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="1">
-        <f>14*2</f>
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1592,8 +1586,7 @@
         <v>58</v>
       </c>
       <c r="F32" s="1">
-        <f>2*29</f>
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1613,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1633,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1653,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1673,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1693,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1713,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1733,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1753,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7">
